--- a/test.xlsx
+++ b/test.xlsx
@@ -67,7 +67,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>zwp</t>
+    <t>name-11</t>
   </si>
   <si>
     <t>3-良好(Meets
@@ -83,7 +83,7 @@
     <t>humy</t>
   </si>
   <si>
-    <t>1093191928@qq.com</t>
+    <t>xxxx@qq.com</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1274,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7"/>
@@ -1452,7 +1452,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" display="1093191928@qq.com"/>
+    <hyperlink ref="L2" r:id="rId1" display="xxxx@qq.com" tooltip="mailto:xxxx@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
